--- a/xlsx/build/система_анализа_и_планирования_ремонтов_оборудования.xlsx
+++ b/xlsx/build/система_анализа_и_планирования_ремонтов_оборудования.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="540" windowWidth="16935" windowHeight="11955"/>
+    <workbookView xWindow="150" yWindow="540" windowWidth="16935" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная" sheetId="1" r:id="rId1"/>
@@ -3756,8 +3756,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3765,8 +3765,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4089,7 +4089,7 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4114,36 +4114,36 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -4155,27 +4155,27 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <v>377</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="27">
+      <c r="H3" s="24">
         <v>241</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="27">
+      <c r="K3" s="24">
         <v>104</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="27">
+      <c r="N3" s="24">
         <v>1</v>
       </c>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
-      <c r="Q3" s="27">
+      <c r="Q3" s="24">
         <v>787</v>
       </c>
       <c r="R3" s="25"/>
@@ -4191,27 +4191,27 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>73</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="27">
+      <c r="H4" s="24">
         <v>109</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="27">
+      <c r="K4" s="24">
         <v>47</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
-      <c r="N4" s="27">
+      <c r="N4" s="24">
         <v>1</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
-      <c r="Q4" s="27">
+      <c r="Q4" s="24">
         <v>251</v>
       </c>
       <c r="R4" s="25"/>
@@ -4227,17 +4227,17 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="27">
+      <c r="H5" s="24">
         <v>27</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="27">
+      <c r="K5" s="24">
         <v>17</v>
       </c>
       <c r="L5" s="25"/>
@@ -4245,7 +4245,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="27">
+      <c r="Q5" s="24">
         <v>6</v>
       </c>
       <c r="R5" s="25"/>
@@ -4261,27 +4261,27 @@
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>59</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="27">
+      <c r="H6" s="24">
         <v>82</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="27">
+      <c r="K6" s="24">
         <v>30</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
-      <c r="N6" s="27">
+      <c r="N6" s="24">
         <v>1</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="27">
+      <c r="Q6" s="24">
         <v>245</v>
       </c>
       <c r="R6" s="25"/>
@@ -4297,17 +4297,17 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="27">
+      <c r="E7" s="24">
         <v>895.75</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="27">
+      <c r="H7" s="24">
         <v>959.75</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="27">
+      <c r="K7" s="24">
         <v>1382.2999999999997</v>
       </c>
       <c r="L7" s="25"/>
@@ -4315,7 +4315,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="27">
+      <c r="Q7" s="24">
         <v>1323.25</v>
       </c>
       <c r="R7" s="25"/>
@@ -4331,27 +4331,27 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>2180.5</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>941.5</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="27">
+      <c r="K8" s="24">
         <v>1311.25</v>
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="27">
+      <c r="N8" s="24">
         <v>3.75</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="27">
+      <c r="Q8" s="24">
         <v>4337.8000000000011</v>
       </c>
       <c r="R8" s="25"/>
@@ -4367,27 +4367,27 @@
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <v>149.29166666666666</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="27">
+      <c r="H9" s="24">
         <v>159.95833333333334</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="27">
+      <c r="K9" s="24">
         <v>230.3833333333333</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="27">
+      <c r="N9" s="24">
         <v>1</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="27">
+      <c r="Q9" s="24">
         <v>220.54166666666666</v>
       </c>
       <c r="R9" s="25"/>
@@ -5932,20 +5932,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
@@ -5962,22 +5964,20 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N8:P8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12760,9 +12760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L380"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
